--- a/02_客户资料/事业项目部导入表/数据格式定义.xlsx
+++ b/02_客户资料/事业项目部导入表/数据格式定义.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="836"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="836" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="171">
   <si>
     <t>合同项目信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -559,6 +559,120 @@
   </si>
   <si>
     <t>型材（吨）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;th&gt;所在部门&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;th&gt;项目编号&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;th&gt;项目名称&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;th&gt;合同金额&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;th&gt;合同调增额&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;th&gt;累计调增额&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;th&gt;合同结算额&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;th&gt;比率&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;th&gt;应收管理费&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;th&gt;实收管理费&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;th&gt;累计收管理费&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;th&gt;尚欠管理费&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;th&gt;发票金额&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;th&gt;累计开票&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;th&gt;收款金额&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;th&gt;累计收款&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;th&gt;回收率&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;th&gt;支付金额&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;th&gt;累计&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;th&gt;应缴税金&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;th&gt;已缴税金&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;th&gt;累计已缴税金&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;th&gt;尚欠税金&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;th&gt;金额&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;th&gt;预计用量&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;th&gt;型材点&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t>合同项目信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同项目信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同项目信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲方开票情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲方开票情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从甲方收款情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户开票情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付工程款情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垫付资金情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -667,7 +781,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -732,6 +846,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1017,8 +1134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2102,168 +2219,211 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B47"/>
+  <dimension ref="B2:C47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="28.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B2" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C4" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C5" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C6" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C7" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C8" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C9" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C10" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C11" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C12" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B13" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C13" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B14" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C14" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B15" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C15" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B16" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C16" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B17" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C17" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B18" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B20" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B22" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B23" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B24" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B25" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B26" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B27" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B28" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B29" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B30" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B31" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B32" s="9" t="s">
         <v>74</v>
       </c>
@@ -2351,14 +2511,251 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="40.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>161</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/02_客户资料/事业项目部导入表/数据格式定义.xlsx
+++ b/02_客户资料/事业项目部导入表/数据格式定义.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="836" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="836" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="6" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="233">
   <si>
     <t>合同项目信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -674,6 +675,192 @@
   <si>
     <t>垫付资金情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serial_id</t>
+  </si>
+  <si>
+    <t>'记录流程号',</t>
+  </si>
+  <si>
+    <t>trice</t>
+  </si>
+  <si>
+    <t>'时间',</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>'摘要',</t>
+  </si>
+  <si>
+    <t>project_id</t>
+  </si>
+  <si>
+    <t>'项目ID',</t>
+  </si>
+  <si>
+    <t>organization_id</t>
+  </si>
+  <si>
+    <t>'所在部门',</t>
+  </si>
+  <si>
+    <t>project_code</t>
+  </si>
+  <si>
+    <t>'项目编号',</t>
+  </si>
+  <si>
+    <t>project_name</t>
+  </si>
+  <si>
+    <t>'项目名称',</t>
+  </si>
+  <si>
+    <t>contract_amount</t>
+  </si>
+  <si>
+    <t>'合同金额',</t>
+  </si>
+  <si>
+    <t>change_amount</t>
+  </si>
+  <si>
+    <t>'合同调增额',</t>
+  </si>
+  <si>
+    <t>change_total_amount</t>
+  </si>
+  <si>
+    <t>'累计调增额',</t>
+  </si>
+  <si>
+    <t>settlement_amount</t>
+  </si>
+  <si>
+    <t>'合同结算额',</t>
+  </si>
+  <si>
+    <t>management_rate</t>
+  </si>
+  <si>
+    <t>'比率',</t>
+  </si>
+  <si>
+    <t>management_plan_amount</t>
+  </si>
+  <si>
+    <t>'应收管理费',</t>
+  </si>
+  <si>
+    <t>management_real_amount</t>
+  </si>
+  <si>
+    <t>'实收管理费',</t>
+  </si>
+  <si>
+    <t>management_total_amount</t>
+  </si>
+  <si>
+    <t>'累计收管理费',</t>
+  </si>
+  <si>
+    <t>management_owe_amount</t>
+  </si>
+  <si>
+    <t>'尚欠管理费',</t>
+  </si>
+  <si>
+    <t>party_billing_amount</t>
+  </si>
+  <si>
+    <t>'发票金额',</t>
+  </si>
+  <si>
+    <t>party_billing_total_amount</t>
+  </si>
+  <si>
+    <t>'累计开票',</t>
+  </si>
+  <si>
+    <t>collections_amount</t>
+  </si>
+  <si>
+    <t>'收款金额',</t>
+  </si>
+  <si>
+    <t>collections_total_amount</t>
+  </si>
+  <si>
+    <t>'累计收款',</t>
+  </si>
+  <si>
+    <t>collections_rate</t>
+  </si>
+  <si>
+    <t>'回收率',</t>
+  </si>
+  <si>
+    <t>customer_billing_amount</t>
+  </si>
+  <si>
+    <t>payment_amount</t>
+  </si>
+  <si>
+    <t>'支付金额',</t>
+  </si>
+  <si>
+    <t>payment_total_amount</t>
+  </si>
+  <si>
+    <t>'累计',</t>
+  </si>
+  <si>
+    <t>tax_rate</t>
+  </si>
+  <si>
+    <t>tax_plan_amount</t>
+  </si>
+  <si>
+    <t>'应缴税金',</t>
+  </si>
+  <si>
+    <t>tax_real_amount</t>
+  </si>
+  <si>
+    <t>'已缴税金',</t>
+  </si>
+  <si>
+    <t>tax_total_amount</t>
+  </si>
+  <si>
+    <t>'累计已缴税金',</t>
+  </si>
+  <si>
+    <t>tax_owe_amount</t>
+  </si>
+  <si>
+    <t>'尚欠税金',</t>
+  </si>
+  <si>
+    <t>arrears_amount</t>
+  </si>
+  <si>
+    <t>'金额',</t>
+  </si>
+  <si>
+    <t>expected_value</t>
+  </si>
+  <si>
+    <t>'预计用量',</t>
+  </si>
+  <si>
+    <t>profile_point</t>
+  </si>
+  <si>
+    <t>'型材点',</t>
   </si>
 </sst>
 </file>
@@ -717,7 +904,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -745,6 +932,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,7 +974,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -849,6 +1042,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1134,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU49"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B47"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2219,287 +2415,546 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C47"/>
+  <dimension ref="A2:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="28.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="15" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="15" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="15" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="15" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="15" t="s">
+      <c r="B7" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="15" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="15" t="s">
+      <c r="B9" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="15" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="15" t="s">
+      <c r="B11" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="15" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="15" t="s">
+      <c r="B13" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="15" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="15" t="s">
+      <c r="B15" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="str">
+        <f>"sum("&amp;C15&amp;")"</f>
+        <v>sum(change_amount)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="15" t="s">
+      <c r="B16" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="15" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B12" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="15" t="s">
+      <c r="B18" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="15" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="15" t="s">
+      <c r="B20" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="15" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B14" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B16" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B17" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B18" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B19" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B20" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B21" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B23" s="8" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B24" s="5" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B25" s="5" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B26" s="5" t="s">
+      <c r="D25" t="str">
+        <f>"sum("&amp;C25&amp;")"</f>
+        <v>sum(management_real_amount)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B27" s="5" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B28" s="5" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B29" s="5" t="s">
+      <c r="D28" t="str">
+        <f>"sum("&amp;C28&amp;")"</f>
+        <v>sum(party_billing_amount)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B30" s="5" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B31" s="5" t="s">
+      <c r="D30" t="str">
+        <f>"sum("&amp;C30&amp;")"</f>
+        <v>sum(collections_amount)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B32" s="9" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B33" s="5" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B34" s="5" t="s">
+      <c r="D33" t="str">
+        <f>"sum("&amp;C33&amp;")"</f>
+        <v>sum(customer_billing_amount)</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B35" s="5" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B36" s="5" t="s">
+      <c r="D35" t="str">
+        <f>"sum("&amp;C35&amp;")"</f>
+        <v>sum(payment_amount)</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B37" s="5" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B38" s="5" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B39" s="5" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B40" s="8" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B41" s="10" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B42" s="5" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B43" s="5" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B44" s="5" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B45" s="4" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B46" s="4" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B47" s="4" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2513,8 +2968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2759,4 +3214,325 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E1:G33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="5" max="5" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E9" t="str">
+        <f>"sum("&amp;F9&amp;")"</f>
+        <v>sum(change_amount)</v>
+      </c>
+      <c r="F9" t="s">
+        <v>187</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F10" t="s">
+        <v>189</v>
+      </c>
+      <c r="G10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F11" t="s">
+        <v>191</v>
+      </c>
+      <c r="G11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F12" t="s">
+        <v>193</v>
+      </c>
+      <c r="G12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E14" t="str">
+        <f>"sum("&amp;F14&amp;")"</f>
+        <v>sum(management_real_amount)</v>
+      </c>
+      <c r="F14" t="s">
+        <v>197</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F15" t="s">
+        <v>199</v>
+      </c>
+      <c r="G15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F16" t="s">
+        <v>201</v>
+      </c>
+      <c r="G16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E17" t="str">
+        <f>"sum("&amp;F17&amp;")"</f>
+        <v>sum(party_billing_amount)</v>
+      </c>
+      <c r="F17" t="s">
+        <v>203</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F18" t="s">
+        <v>205</v>
+      </c>
+      <c r="G18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E19" t="str">
+        <f>"sum("&amp;F19&amp;")"</f>
+        <v>sum(collections_amount)</v>
+      </c>
+      <c r="F19" t="s">
+        <v>207</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F20" t="s">
+        <v>209</v>
+      </c>
+      <c r="G20" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F21" t="s">
+        <v>211</v>
+      </c>
+      <c r="G21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E22" t="str">
+        <f>"sum("&amp;F22&amp;")"</f>
+        <v>sum(customer_billing_amount)</v>
+      </c>
+      <c r="F22" t="s">
+        <v>213</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E24" t="str">
+        <f>"sum("&amp;F24&amp;")"</f>
+        <v>sum(payment_amount)</v>
+      </c>
+      <c r="F24" t="s">
+        <v>214</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F25" t="s">
+        <v>216</v>
+      </c>
+      <c r="G25" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F26" t="s">
+        <v>218</v>
+      </c>
+      <c r="G26" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F27" t="s">
+        <v>219</v>
+      </c>
+      <c r="G27" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E28" t="str">
+        <f>"sum("&amp;F28&amp;")"</f>
+        <v>sum(tax_real_amount)</v>
+      </c>
+      <c r="F28" t="s">
+        <v>221</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F29" t="s">
+        <v>223</v>
+      </c>
+      <c r="G29" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F30" t="s">
+        <v>225</v>
+      </c>
+      <c r="G30" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E31" t="str">
+        <f>"sum("&amp;F31&amp;")"</f>
+        <v>sum(arrears_amount)</v>
+      </c>
+      <c r="F31" t="s">
+        <v>227</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="32" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E32" t="str">
+        <f>"sum("&amp;F32&amp;")"</f>
+        <v>sum(expected_value)</v>
+      </c>
+      <c r="F32" t="s">
+        <v>229</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F33" t="s">
+        <v>231</v>
+      </c>
+      <c r="G33" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/02_客户资料/事业项目部导入表/数据格式定义.xlsx
+++ b/02_客户资料/事业项目部导入表/数据格式定义.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cqiyi\git\hply\02_客户资料\事业项目部导入表\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="836" activeTab="4"/>
   </bookViews>
@@ -18,7 +13,7 @@
     <sheet name="Sheet4" sheetId="7" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="8" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="256">
   <si>
     <t>合同项目信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -861,6 +856,75 @@
   </si>
   <si>
     <t>'型材点',</t>
+  </si>
+  <si>
+    <t>char(36)</t>
+  </si>
+  <si>
+    <t>NOT</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>''</t>
+  </si>
+  <si>
+    <t>COMMENT</t>
+  </si>
+  <si>
+    <t>'ID',</t>
+  </si>
+  <si>
+    <t>int(11)</t>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>varchar(500)</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
+    <t>decimal(20,4)</t>
+  </si>
+  <si>
+    <t>'0.0000'</t>
+  </si>
+  <si>
+    <t>'0',</t>
+  </si>
+  <si>
+    <t>CURRENT_TIMESTAMP</t>
+  </si>
+  <si>
+    <t>'创建时间，数据生成时间',</t>
+  </si>
+  <si>
+    <t>NULL,</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>create_time</t>
+  </si>
+  <si>
+    <t>table_name</t>
   </si>
 </sst>
 </file>
@@ -1320,7 +1384,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3218,317 +3282,1286 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E1:G33"/>
+  <dimension ref="D1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="5" max="5" width="31.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="63.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="F1" t="s">
+    <row r="1" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D1" t="s">
         <v>171</v>
+      </c>
+      <c r="E1" t="str">
+        <f>IF(F1="", D1,F1)</f>
+        <v>serial_id</v>
       </c>
       <c r="G1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="2" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="F2" t="s">
+      <c r="I1" t="str">
+        <f>IFERROR(VLOOKUP(J1,D:F,2,FALSE), J1)&amp;","</f>
+        <v>id,</v>
+      </c>
+      <c r="J1" t="s">
+        <v>252</v>
+      </c>
+      <c r="K1" t="s">
+        <v>233</v>
+      </c>
+      <c r="L1" t="s">
+        <v>234</v>
+      </c>
+      <c r="M1" t="s">
+        <v>235</v>
+      </c>
+      <c r="N1" t="s">
+        <v>236</v>
+      </c>
+      <c r="O1" t="s">
+        <v>237</v>
+      </c>
+      <c r="P1" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D2" t="s">
         <v>173</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E33" si="0">IF(F2="", D2,F2)</f>
+        <v>trice</v>
       </c>
       <c r="G2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="3" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="F3" t="s">
+      <c r="I2" t="str">
+        <f t="shared" ref="I2:I37" si="1">IFERROR(VLOOKUP(J2,D:F,2,FALSE), J2)&amp;","</f>
+        <v>serial_id,</v>
+      </c>
+      <c r="J2" t="s">
+        <v>171</v>
+      </c>
+      <c r="K2" t="s">
+        <v>240</v>
+      </c>
+      <c r="L2" t="s">
+        <v>234</v>
+      </c>
+      <c r="M2" t="s">
+        <v>235</v>
+      </c>
+      <c r="N2" t="s">
+        <v>241</v>
+      </c>
+      <c r="O2" t="s">
+        <v>238</v>
+      </c>
+      <c r="P2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D3" t="s">
         <v>175</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>description</v>
       </c>
       <c r="G3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="4" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="F4" t="s">
+      <c r="I3" t="str">
+        <f t="shared" si="1"/>
+        <v>trice,</v>
+      </c>
+      <c r="J3" t="s">
+        <v>173</v>
+      </c>
+      <c r="K3" t="s">
+        <v>242</v>
+      </c>
+      <c r="L3" t="s">
+        <v>236</v>
+      </c>
+      <c r="M3" t="s">
+        <v>235</v>
+      </c>
+      <c r="N3" t="s">
+        <v>238</v>
+      </c>
+      <c r="O3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D4" t="s">
         <v>177</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>project_id</v>
       </c>
       <c r="G4" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="5" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="F5" t="s">
+      <c r="I4" t="str">
+        <f t="shared" si="1"/>
+        <v>description,</v>
+      </c>
+      <c r="J4" t="s">
+        <v>175</v>
+      </c>
+      <c r="K4" t="s">
+        <v>243</v>
+      </c>
+      <c r="L4" t="s">
+        <v>236</v>
+      </c>
+      <c r="M4" t="s">
+        <v>235</v>
+      </c>
+      <c r="N4" t="s">
+        <v>238</v>
+      </c>
+      <c r="O4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D5" t="s">
         <v>179</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>organization_id</v>
       </c>
       <c r="G5" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="6" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="F6" t="s">
+      <c r="I5" t="str">
+        <f t="shared" si="1"/>
+        <v>project_id,</v>
+      </c>
+      <c r="J5" t="s">
+        <v>177</v>
+      </c>
+      <c r="K5" t="s">
+        <v>233</v>
+      </c>
+      <c r="L5" t="s">
+        <v>236</v>
+      </c>
+      <c r="M5" t="s">
+        <v>235</v>
+      </c>
+      <c r="N5" t="s">
+        <v>238</v>
+      </c>
+      <c r="O5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D6" t="s">
         <v>181</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>project_code</v>
       </c>
       <c r="G6" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="7" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="F7" t="s">
+      <c r="I6" t="str">
+        <f t="shared" si="1"/>
+        <v>organization_id,</v>
+      </c>
+      <c r="J6" t="s">
+        <v>179</v>
+      </c>
+      <c r="K6" t="s">
+        <v>233</v>
+      </c>
+      <c r="L6" t="s">
+        <v>236</v>
+      </c>
+      <c r="M6" t="s">
+        <v>235</v>
+      </c>
+      <c r="N6" t="s">
+        <v>238</v>
+      </c>
+      <c r="O6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D7" t="s">
         <v>183</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>project_name</v>
       </c>
       <c r="G7" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="8" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="F8" t="s">
+      <c r="I7" t="str">
+        <f t="shared" si="1"/>
+        <v>project_code,</v>
+      </c>
+      <c r="J7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L7" t="s">
+        <v>236</v>
+      </c>
+      <c r="M7" t="s">
+        <v>235</v>
+      </c>
+      <c r="N7" t="s">
+        <v>238</v>
+      </c>
+      <c r="O7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D8" t="s">
         <v>185</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>contract_amount</v>
       </c>
       <c r="G8" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="9" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="I8" t="str">
+        <f t="shared" si="1"/>
+        <v>project_name,</v>
+      </c>
+      <c r="J8" t="s">
+        <v>183</v>
+      </c>
+      <c r="K8" t="s">
+        <v>245</v>
+      </c>
+      <c r="L8" t="s">
+        <v>236</v>
+      </c>
+      <c r="M8" t="s">
+        <v>235</v>
+      </c>
+      <c r="N8" t="s">
+        <v>238</v>
+      </c>
+      <c r="O8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D9" t="s">
+        <v>187</v>
+      </c>
       <c r="E9" t="str">
-        <f>"sum("&amp;F9&amp;")"</f>
-        <v>sum(change_amount)</v>
-      </c>
-      <c r="F9" t="s">
-        <v>187</v>
+        <f t="shared" si="0"/>
+        <v>sum(change_amount) as change_amount</v>
+      </c>
+      <c r="F9" t="str">
+        <f>"sum("&amp;D9&amp;") as " &amp;D9</f>
+        <v>sum(change_amount) as change_amount</v>
       </c>
       <c r="G9" s="23" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="10" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="F10" t="s">
+      <c r="I9" t="str">
+        <f t="shared" si="1"/>
+        <v>contract_amount,</v>
+      </c>
+      <c r="J9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K9" t="s">
+        <v>246</v>
+      </c>
+      <c r="L9" t="s">
+        <v>236</v>
+      </c>
+      <c r="M9" t="s">
+        <v>247</v>
+      </c>
+      <c r="N9" t="s">
+        <v>238</v>
+      </c>
+      <c r="O9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D10" t="s">
         <v>189</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>change_total_amount</v>
       </c>
       <c r="G10" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="11" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="F11" t="s">
+      <c r="I10" t="str">
+        <f t="shared" si="1"/>
+        <v>sum(change_amount) as change_amount,</v>
+      </c>
+      <c r="J10" t="s">
+        <v>187</v>
+      </c>
+      <c r="K10" t="s">
+        <v>246</v>
+      </c>
+      <c r="L10" t="s">
+        <v>236</v>
+      </c>
+      <c r="M10" t="s">
+        <v>247</v>
+      </c>
+      <c r="N10" t="s">
+        <v>238</v>
+      </c>
+      <c r="O10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D11" t="s">
         <v>191</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>settlement_amount</v>
       </c>
       <c r="G11" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="12" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="F12" t="s">
+      <c r="I11" t="str">
+        <f t="shared" si="1"/>
+        <v>change_total_amount,</v>
+      </c>
+      <c r="J11" t="s">
+        <v>189</v>
+      </c>
+      <c r="K11" t="s">
+        <v>246</v>
+      </c>
+      <c r="L11" t="s">
+        <v>236</v>
+      </c>
+      <c r="M11" t="s">
+        <v>247</v>
+      </c>
+      <c r="N11" t="s">
+        <v>238</v>
+      </c>
+      <c r="O11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D12" t="s">
         <v>193</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>management_rate</v>
       </c>
       <c r="G12" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="13" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="F13" t="s">
+      <c r="I12" t="str">
+        <f t="shared" si="1"/>
+        <v>settlement_amount,</v>
+      </c>
+      <c r="J12" t="s">
+        <v>191</v>
+      </c>
+      <c r="K12" t="s">
+        <v>246</v>
+      </c>
+      <c r="L12" t="s">
+        <v>236</v>
+      </c>
+      <c r="M12" t="s">
+        <v>247</v>
+      </c>
+      <c r="N12" t="s">
+        <v>238</v>
+      </c>
+      <c r="O12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D13" t="s">
         <v>195</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>management_plan_amount</v>
       </c>
       <c r="G13" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="14" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="I13" t="str">
+        <f t="shared" si="1"/>
+        <v>management_rate,</v>
+      </c>
+      <c r="J13" t="s">
+        <v>193</v>
+      </c>
+      <c r="K13" t="s">
+        <v>246</v>
+      </c>
+      <c r="L13" t="s">
+        <v>236</v>
+      </c>
+      <c r="M13" t="s">
+        <v>247</v>
+      </c>
+      <c r="N13" t="s">
+        <v>238</v>
+      </c>
+      <c r="O13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D14" t="s">
+        <v>197</v>
+      </c>
       <c r="E14" t="str">
-        <f>"sum("&amp;F14&amp;")"</f>
-        <v>sum(management_real_amount)</v>
-      </c>
-      <c r="F14" t="s">
-        <v>197</v>
+        <f t="shared" si="0"/>
+        <v>sum(management_real_amount) as management_real_amount</v>
+      </c>
+      <c r="F14" t="str">
+        <f>"sum("&amp;D14&amp;") as " &amp;D14</f>
+        <v>sum(management_real_amount) as management_real_amount</v>
       </c>
       <c r="G14" s="23" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="15" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="F15" t="s">
+      <c r="I14" t="str">
+        <f t="shared" si="1"/>
+        <v>management_plan_amount,</v>
+      </c>
+      <c r="J14" t="s">
+        <v>195</v>
+      </c>
+      <c r="K14" t="s">
+        <v>246</v>
+      </c>
+      <c r="L14" t="s">
+        <v>236</v>
+      </c>
+      <c r="M14" t="s">
+        <v>247</v>
+      </c>
+      <c r="N14" t="s">
+        <v>238</v>
+      </c>
+      <c r="O14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D15" t="s">
         <v>199</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>management_total_amount</v>
       </c>
       <c r="G15" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="F16" t="s">
+      <c r="I15" t="str">
+        <f t="shared" si="1"/>
+        <v>sum(management_real_amount) as management_real_amount,</v>
+      </c>
+      <c r="J15" t="s">
+        <v>197</v>
+      </c>
+      <c r="K15" t="s">
+        <v>246</v>
+      </c>
+      <c r="L15" t="s">
+        <v>236</v>
+      </c>
+      <c r="M15" t="s">
+        <v>247</v>
+      </c>
+      <c r="N15" t="s">
+        <v>238</v>
+      </c>
+      <c r="O15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D16" t="s">
         <v>201</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>management_owe_amount</v>
       </c>
       <c r="G16" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="I16" t="str">
+        <f t="shared" si="1"/>
+        <v>management_total_amount,</v>
+      </c>
+      <c r="J16" t="s">
+        <v>199</v>
+      </c>
+      <c r="K16" t="s">
+        <v>246</v>
+      </c>
+      <c r="L16" t="s">
+        <v>236</v>
+      </c>
+      <c r="M16" t="s">
+        <v>247</v>
+      </c>
+      <c r="N16" t="s">
+        <v>238</v>
+      </c>
+      <c r="O16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D17" t="s">
+        <v>203</v>
+      </c>
       <c r="E17" t="str">
-        <f>"sum("&amp;F17&amp;")"</f>
-        <v>sum(party_billing_amount)</v>
-      </c>
-      <c r="F17" t="s">
-        <v>203</v>
+        <f t="shared" si="0"/>
+        <v>sum(party_billing_amount) as party_billing_amount</v>
+      </c>
+      <c r="F17" t="str">
+        <f>"sum("&amp;D17&amp;") as " &amp;D17</f>
+        <v>sum(party_billing_amount) as party_billing_amount</v>
       </c>
       <c r="G17" s="23" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="F18" t="s">
+      <c r="I17" t="str">
+        <f t="shared" si="1"/>
+        <v>management_owe_amount,</v>
+      </c>
+      <c r="J17" t="s">
+        <v>201</v>
+      </c>
+      <c r="K17" t="s">
+        <v>246</v>
+      </c>
+      <c r="L17" t="s">
+        <v>236</v>
+      </c>
+      <c r="M17" t="s">
+        <v>247</v>
+      </c>
+      <c r="N17" t="s">
+        <v>238</v>
+      </c>
+      <c r="O17" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D18" t="s">
         <v>205</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>party_billing_total_amount</v>
       </c>
       <c r="G18" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="I18" t="str">
+        <f t="shared" si="1"/>
+        <v>sum(party_billing_amount) as party_billing_amount,</v>
+      </c>
+      <c r="J18" t="s">
+        <v>203</v>
+      </c>
+      <c r="K18" t="s">
+        <v>246</v>
+      </c>
+      <c r="L18" t="s">
+        <v>236</v>
+      </c>
+      <c r="M18" t="s">
+        <v>247</v>
+      </c>
+      <c r="N18" t="s">
+        <v>238</v>
+      </c>
+      <c r="O18" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D19" t="s">
+        <v>207</v>
+      </c>
       <c r="E19" t="str">
-        <f>"sum("&amp;F19&amp;")"</f>
-        <v>sum(collections_amount)</v>
-      </c>
-      <c r="F19" t="s">
-        <v>207</v>
+        <f t="shared" si="0"/>
+        <v>sum(collections_amount) as collections_amount</v>
+      </c>
+      <c r="F19" t="str">
+        <f>"sum("&amp;D19&amp;") as " &amp;D19</f>
+        <v>sum(collections_amount) as collections_amount</v>
       </c>
       <c r="G19" s="23" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="F20" t="s">
+      <c r="I19" t="str">
+        <f t="shared" si="1"/>
+        <v>party_billing_total_amount,</v>
+      </c>
+      <c r="J19" t="s">
+        <v>205</v>
+      </c>
+      <c r="K19" t="s">
+        <v>246</v>
+      </c>
+      <c r="L19" t="s">
+        <v>236</v>
+      </c>
+      <c r="M19" t="s">
+        <v>247</v>
+      </c>
+      <c r="N19" t="s">
+        <v>238</v>
+      </c>
+      <c r="O19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D20" t="s">
         <v>209</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>collections_total_amount</v>
       </c>
       <c r="G20" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="F21" t="s">
+      <c r="I20" t="str">
+        <f t="shared" si="1"/>
+        <v>sum(collections_amount) as collections_amount,</v>
+      </c>
+      <c r="J20" t="s">
+        <v>207</v>
+      </c>
+      <c r="K20" t="s">
+        <v>246</v>
+      </c>
+      <c r="L20" t="s">
+        <v>236</v>
+      </c>
+      <c r="M20" t="s">
+        <v>247</v>
+      </c>
+      <c r="N20" t="s">
+        <v>238</v>
+      </c>
+      <c r="O20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D21" t="s">
         <v>211</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>collections_rate</v>
       </c>
       <c r="G21" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="I21" t="str">
+        <f t="shared" si="1"/>
+        <v>collections_total_amount,</v>
+      </c>
+      <c r="J21" t="s">
+        <v>209</v>
+      </c>
+      <c r="K21" t="s">
+        <v>246</v>
+      </c>
+      <c r="L21" t="s">
+        <v>236</v>
+      </c>
+      <c r="M21" t="s">
+        <v>247</v>
+      </c>
+      <c r="N21" t="s">
+        <v>238</v>
+      </c>
+      <c r="O21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D22" t="s">
+        <v>213</v>
+      </c>
       <c r="E22" t="str">
-        <f>"sum("&amp;F22&amp;")"</f>
-        <v>sum(customer_billing_amount)</v>
-      </c>
-      <c r="F22" t="s">
-        <v>213</v>
+        <f t="shared" si="0"/>
+        <v>sum(customer_billing_amount) as customer_billing_amount</v>
+      </c>
+      <c r="F22" t="str">
+        <f>"sum("&amp;D22&amp;") as " &amp;D22</f>
+        <v>sum(customer_billing_amount) as customer_billing_amount</v>
       </c>
       <c r="G22" s="23" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="F23" t="s">
+      <c r="I22" t="str">
+        <f t="shared" si="1"/>
+        <v>collections_rate,</v>
+      </c>
+      <c r="J22" t="s">
+        <v>211</v>
+      </c>
+      <c r="K22" t="s">
+        <v>246</v>
+      </c>
+      <c r="L22" t="s">
+        <v>236</v>
+      </c>
+      <c r="M22" t="s">
+        <v>247</v>
+      </c>
+      <c r="N22" t="s">
+        <v>238</v>
+      </c>
+      <c r="O22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D23" t="s">
         <v>76</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>customer_billing_total_amount</v>
       </c>
       <c r="G23" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="24" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="I23" t="str">
+        <f t="shared" si="1"/>
+        <v>sum(customer_billing_amount) as customer_billing_amount,</v>
+      </c>
+      <c r="J23" t="s">
+        <v>213</v>
+      </c>
+      <c r="K23" t="s">
+        <v>246</v>
+      </c>
+      <c r="L23" t="s">
+        <v>236</v>
+      </c>
+      <c r="M23" t="s">
+        <v>247</v>
+      </c>
+      <c r="N23" t="s">
+        <v>238</v>
+      </c>
+      <c r="O23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D24" t="s">
+        <v>214</v>
+      </c>
       <c r="E24" t="str">
-        <f>"sum("&amp;F24&amp;")"</f>
-        <v>sum(payment_amount)</v>
-      </c>
-      <c r="F24" t="s">
-        <v>214</v>
+        <f t="shared" si="0"/>
+        <v>sum(payment_amount) as payment_amount</v>
+      </c>
+      <c r="F24" t="str">
+        <f>"sum("&amp;D24&amp;") as " &amp;D24</f>
+        <v>sum(payment_amount) as payment_amount</v>
       </c>
       <c r="G24" s="23" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="25" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="F25" t="s">
+      <c r="I24" t="str">
+        <f t="shared" si="1"/>
+        <v>customer_billing_total_amount,</v>
+      </c>
+      <c r="J24" t="s">
+        <v>76</v>
+      </c>
+      <c r="K24" t="s">
+        <v>246</v>
+      </c>
+      <c r="L24" t="s">
+        <v>236</v>
+      </c>
+      <c r="M24" t="s">
+        <v>247</v>
+      </c>
+      <c r="N24" t="s">
+        <v>238</v>
+      </c>
+      <c r="O24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D25" t="s">
         <v>216</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>payment_total_amount</v>
       </c>
       <c r="G25" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="26" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="F26" t="s">
+      <c r="I25" t="str">
+        <f t="shared" si="1"/>
+        <v>sum(payment_amount) as payment_amount,</v>
+      </c>
+      <c r="J25" t="s">
+        <v>214</v>
+      </c>
+      <c r="K25" t="s">
+        <v>246</v>
+      </c>
+      <c r="L25" t="s">
+        <v>236</v>
+      </c>
+      <c r="M25" t="s">
+        <v>247</v>
+      </c>
+      <c r="N25" t="s">
+        <v>238</v>
+      </c>
+      <c r="O25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D26" t="s">
         <v>218</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>tax_rate</v>
       </c>
       <c r="G26" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="27" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="F27" t="s">
+      <c r="I26" t="str">
+        <f t="shared" si="1"/>
+        <v>payment_total_amount,</v>
+      </c>
+      <c r="J26" t="s">
+        <v>216</v>
+      </c>
+      <c r="K26" t="s">
+        <v>246</v>
+      </c>
+      <c r="L26" t="s">
+        <v>236</v>
+      </c>
+      <c r="M26" t="s">
+        <v>247</v>
+      </c>
+      <c r="N26" t="s">
+        <v>238</v>
+      </c>
+      <c r="O26" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D27" t="s">
         <v>219</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>tax_plan_amount</v>
       </c>
       <c r="G27" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="28" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="I27" t="str">
+        <f t="shared" si="1"/>
+        <v>tax_rate,</v>
+      </c>
+      <c r="J27" t="s">
+        <v>218</v>
+      </c>
+      <c r="K27" t="s">
+        <v>246</v>
+      </c>
+      <c r="L27" t="s">
+        <v>236</v>
+      </c>
+      <c r="M27" t="s">
+        <v>247</v>
+      </c>
+      <c r="N27" t="s">
+        <v>238</v>
+      </c>
+      <c r="O27" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D28" t="s">
+        <v>221</v>
+      </c>
       <c r="E28" t="str">
-        <f>"sum("&amp;F28&amp;")"</f>
-        <v>sum(tax_real_amount)</v>
-      </c>
-      <c r="F28" t="s">
-        <v>221</v>
+        <f t="shared" si="0"/>
+        <v>sum(tax_real_amount) as tax_real_amount</v>
+      </c>
+      <c r="F28" t="str">
+        <f>"sum("&amp;D28&amp;") as " &amp;D28</f>
+        <v>sum(tax_real_amount) as tax_real_amount</v>
       </c>
       <c r="G28" s="23" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="29" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="F29" t="s">
+      <c r="I28" t="str">
+        <f t="shared" si="1"/>
+        <v>tax_plan_amount,</v>
+      </c>
+      <c r="J28" t="s">
+        <v>219</v>
+      </c>
+      <c r="K28" t="s">
+        <v>246</v>
+      </c>
+      <c r="L28" t="s">
+        <v>236</v>
+      </c>
+      <c r="M28" t="s">
+        <v>247</v>
+      </c>
+      <c r="N28" t="s">
+        <v>238</v>
+      </c>
+      <c r="O28" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D29" t="s">
         <v>223</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>tax_total_amount</v>
       </c>
       <c r="G29" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="30" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="F30" t="s">
+      <c r="I29" t="str">
+        <f t="shared" si="1"/>
+        <v>sum(tax_real_amount) as tax_real_amount,</v>
+      </c>
+      <c r="J29" t="s">
+        <v>221</v>
+      </c>
+      <c r="K29" t="s">
+        <v>246</v>
+      </c>
+      <c r="L29" t="s">
+        <v>236</v>
+      </c>
+      <c r="M29" t="s">
+        <v>247</v>
+      </c>
+      <c r="N29" t="s">
+        <v>238</v>
+      </c>
+      <c r="O29" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D30" t="s">
         <v>225</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>tax_owe_amount</v>
       </c>
       <c r="G30" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="31" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="I30" t="str">
+        <f t="shared" si="1"/>
+        <v>tax_total_amount,</v>
+      </c>
+      <c r="J30" t="s">
+        <v>223</v>
+      </c>
+      <c r="K30" t="s">
+        <v>246</v>
+      </c>
+      <c r="L30" t="s">
+        <v>236</v>
+      </c>
+      <c r="M30" t="s">
+        <v>247</v>
+      </c>
+      <c r="N30" t="s">
+        <v>238</v>
+      </c>
+      <c r="O30" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D31" t="s">
+        <v>227</v>
+      </c>
       <c r="E31" t="str">
-        <f>"sum("&amp;F31&amp;")"</f>
-        <v>sum(arrears_amount)</v>
-      </c>
-      <c r="F31" t="s">
-        <v>227</v>
+        <f t="shared" si="0"/>
+        <v>sum(arrears_amount) as arrears_amount</v>
+      </c>
+      <c r="F31" t="str">
+        <f>"sum("&amp;D31&amp;") as " &amp;D31</f>
+        <v>sum(arrears_amount) as arrears_amount</v>
       </c>
       <c r="G31" s="23" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="32" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="I31" t="str">
+        <f t="shared" si="1"/>
+        <v>tax_owe_amount,</v>
+      </c>
+      <c r="J31" t="s">
+        <v>225</v>
+      </c>
+      <c r="K31" t="s">
+        <v>246</v>
+      </c>
+      <c r="L31" t="s">
+        <v>236</v>
+      </c>
+      <c r="M31" t="s">
+        <v>247</v>
+      </c>
+      <c r="N31" t="s">
+        <v>238</v>
+      </c>
+      <c r="O31" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="32" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D32" t="s">
+        <v>229</v>
+      </c>
       <c r="E32" t="str">
-        <f>"sum("&amp;F32&amp;")"</f>
-        <v>sum(expected_value)</v>
-      </c>
-      <c r="F32" t="s">
-        <v>229</v>
+        <f t="shared" si="0"/>
+        <v>sum(expected_value) as expected_value</v>
+      </c>
+      <c r="F32" t="str">
+        <f>"sum("&amp;D32&amp;") as " &amp;D32</f>
+        <v>sum(expected_value) as expected_value</v>
       </c>
       <c r="G32" s="23" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F33" t="s">
+      <c r="I32" t="str">
+        <f t="shared" si="1"/>
+        <v>sum(arrears_amount) as arrears_amount,</v>
+      </c>
+      <c r="J32" t="s">
+        <v>227</v>
+      </c>
+      <c r="K32" t="s">
+        <v>246</v>
+      </c>
+      <c r="L32" t="s">
+        <v>236</v>
+      </c>
+      <c r="M32" t="s">
+        <v>247</v>
+      </c>
+      <c r="N32" t="s">
+        <v>238</v>
+      </c>
+      <c r="O32" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="33" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D33" t="s">
         <v>231</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>profile_point</v>
       </c>
       <c r="G33" t="s">
         <v>232</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="1"/>
+        <v>sum(expected_value) as expected_value,</v>
+      </c>
+      <c r="J33" t="s">
+        <v>229</v>
+      </c>
+      <c r="K33" t="s">
+        <v>246</v>
+      </c>
+      <c r="L33" t="s">
+        <v>236</v>
+      </c>
+      <c r="M33" t="s">
+        <v>247</v>
+      </c>
+      <c r="N33" t="s">
+        <v>238</v>
+      </c>
+      <c r="O33" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="34" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="I34" t="str">
+        <f t="shared" si="1"/>
+        <v>profile_point,</v>
+      </c>
+      <c r="J34" t="s">
+        <v>231</v>
+      </c>
+      <c r="K34" t="s">
+        <v>245</v>
+      </c>
+      <c r="L34" t="s">
+        <v>236</v>
+      </c>
+      <c r="M34" t="s">
+        <v>235</v>
+      </c>
+      <c r="N34" t="s">
+        <v>238</v>
+      </c>
+      <c r="O34" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="35" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="I35" t="str">
+        <f t="shared" si="1"/>
+        <v>version,</v>
+      </c>
+      <c r="J35" t="s">
+        <v>253</v>
+      </c>
+      <c r="K35" t="s">
+        <v>240</v>
+      </c>
+      <c r="L35" t="s">
+        <v>234</v>
+      </c>
+      <c r="M35" t="s">
+        <v>235</v>
+      </c>
+      <c r="N35" t="s">
+        <v>236</v>
+      </c>
+      <c r="O35" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="36" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="I36" t="str">
+        <f t="shared" si="1"/>
+        <v>create_time,</v>
+      </c>
+      <c r="J36" t="s">
+        <v>254</v>
+      </c>
+      <c r="K36" t="s">
+        <v>242</v>
+      </c>
+      <c r="L36" t="s">
+        <v>234</v>
+      </c>
+      <c r="M36" t="s">
+        <v>235</v>
+      </c>
+      <c r="N36" t="s">
+        <v>236</v>
+      </c>
+      <c r="O36" t="s">
+        <v>249</v>
+      </c>
+      <c r="P36" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="37" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="I37" t="str">
+        <f t="shared" si="1"/>
+        <v>table_name,</v>
+      </c>
+      <c r="J37" t="s">
+        <v>255</v>
+      </c>
+      <c r="K37" t="s">
+        <v>245</v>
+      </c>
+      <c r="L37" t="s">
+        <v>236</v>
+      </c>
+      <c r="M37" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
